--- a/2024_Spring_Schedule.xlsx
+++ b/2024_Spring_Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF5278B-7862-45C1-AF9A-50EC92CBD745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4B9287-C098-405F-9400-7EFC8FE4513E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-285" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>M</t>
   </si>
@@ -49,9 +49,6 @@
     <t>staff</t>
   </si>
   <si>
-    <t>Friend</t>
-  </si>
-  <si>
     <t>016</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>CSML</t>
+  </si>
+  <si>
+    <t>Friend Cen</t>
   </si>
 </sst>
 </file>
@@ -84,13 +84,13 @@
     </font>
     <font>
       <b/>
-      <sz val="24"/>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="24"/>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -211,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -228,58 +228,64 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -565,19 +571,20 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="31.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="33.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="23.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="9"/>
+    <col min="1" max="1" width="13.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="27.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -595,178 +602,191 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0.375000000000002</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>0.39583333333333498</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="20" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>0.41666666666666802</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>0.437500000000001</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>0.45833333333333398</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>0.5</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="15">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17">
         <v>103</v>
       </c>
-      <c r="D8" s="8">
-        <v>201</v>
-      </c>
-      <c r="E8" s="15">
+      <c r="D8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="17">
         <v>103</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>0.5625</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="16" t="s">
+      <c r="D11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="7" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="8">
+      <c r="B13" s="16"/>
+      <c r="C13" s="24">
         <v>201</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="12"/>
+      <c r="D13" s="24">
+        <v>201</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LDerek Sollberger
-&amp;CTeaching Schedule&amp;RSpring 2023</oddHeader>
-    <oddFooter>&amp;Ldsollberger@ucmerced.edu&amp;RAOA 175</oddFooter>
+&amp;CTeaching Schedule&amp;RSpring 2024</oddHeader>
+    <oddFooter>&amp;Ldsollberger@princeton.edu&amp;RBendheim House 201</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100002431159358654E8AA6C42511D26175" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b96a54bf40a9ccc41992d24e90f2f90e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d45170d5-db32-425e-b700-0b69fdebcca2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b2b2efe11f9c38faddca26ad1e41829f" ns3:_="">
     <xsd:import namespace="d45170d5-db32-425e-b700-0b69fdebcca2"/>
@@ -910,15 +930,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -928,6 +939,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2527C2FE-56F5-4FBA-A237-28A8BB4B7082}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B6126F7-985E-4354-8E1B-141AB34EA95C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -945,14 +964,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2527C2FE-56F5-4FBA-A237-28A8BB4B7082}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A09AA465-C9DD-4636-960C-4CB73CBBE6BD}">
   <ds:schemaRefs>

--- a/2024_Spring_Schedule.xlsx
+++ b/2024_Spring_Schedule.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4B9287-C098-405F-9400-7EFC8FE4513E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38768C5-1A9A-4AE2-9C49-AF9B48BCE7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-285" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -237,9 +237,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -255,7 +252,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -267,10 +264,7 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -571,20 +565,20 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="33.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="33.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="27.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="13.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="27.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -602,7 +596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0.375000000000002</v>
       </c>
@@ -614,7 +608,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>0.39583333333333498</v>
       </c>
@@ -626,7 +620,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0.41666666666666802</v>
       </c>
@@ -636,7 +630,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>0.437500000000001</v>
       </c>
@@ -644,127 +638,127 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>0.45833333333333398</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>0.5</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17">
+      <c r="B8" s="15"/>
+      <c r="C8" s="16">
         <v>103</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="17">
+      <c r="D8" s="22">
+        <v>201</v>
+      </c>
+      <c r="E8" s="16">
         <v>103</v>
       </c>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>0.52083333333333304</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="20"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>0.5625</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="E11" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="24">
+      <c r="B13" s="15"/>
+      <c r="C13" s="22">
         <v>201</v>
       </c>
-      <c r="D13" s="24">
-        <v>201</v>
-      </c>
-      <c r="E13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="E13" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -778,15 +772,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100002431159358654E8AA6C42511D26175" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b96a54bf40a9ccc41992d24e90f2f90e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d45170d5-db32-425e-b700-0b69fdebcca2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b2b2efe11f9c38faddca26ad1e41829f" ns3:_="">
     <xsd:import namespace="d45170d5-db32-425e-b700-0b69fdebcca2"/>
@@ -930,6 +915,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -939,14 +933,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2527C2FE-56F5-4FBA-A237-28A8BB4B7082}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B6126F7-985E-4354-8E1B-141AB34EA95C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -964,6 +950,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2527C2FE-56F5-4FBA-A237-28A8BB4B7082}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A09AA465-C9DD-4636-960C-4CB73CBBE6BD}">
   <ds:schemaRefs>

--- a/2024_Spring_Schedule.xlsx
+++ b/2024_Spring_Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38768C5-1A9A-4AE2-9C49-AF9B48BCE7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC308EF9-33B8-470D-8B4C-6A336BB15624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -111,25 +111,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="4" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,55 +231,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -565,20 +565,20 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="33.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="33.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="27.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="21"/>
+    <col min="1" max="1" width="13.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="27.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -596,7 +596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0.375000000000002</v>
       </c>
@@ -608,7 +608,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>0.39583333333333498</v>
       </c>
@@ -620,7 +620,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>0.41666666666666802</v>
       </c>
@@ -630,7 +630,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>0.437500000000001</v>
       </c>
@@ -640,7 +640,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>0.45833333333333398</v>
       </c>
@@ -650,7 +650,7 @@
       <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -658,107 +658,107 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>0.5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14">
         <v>103</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="20">
         <v>201</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>103</v>
       </c>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>0.52083333333333304</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="14"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>0.5625</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="20" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="22">
+      <c r="B13" s="13"/>
+      <c r="C13" s="20">
         <v>201</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -772,6 +772,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100002431159358654E8AA6C42511D26175" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b96a54bf40a9ccc41992d24e90f2f90e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d45170d5-db32-425e-b700-0b69fdebcca2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b2b2efe11f9c38faddca26ad1e41829f" ns3:_="">
     <xsd:import namespace="d45170d5-db32-425e-b700-0b69fdebcca2"/>
@@ -915,15 +924,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -933,6 +933,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2527C2FE-56F5-4FBA-A237-28A8BB4B7082}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B6126F7-985E-4354-8E1B-141AB34EA95C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -950,14 +958,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2527C2FE-56F5-4FBA-A237-28A8BB4B7082}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A09AA465-C9DD-4636-960C-4CB73CBBE6BD}">
   <ds:schemaRefs>
